--- a/biology/Zoologie/Gravlax/Gravlax.xlsx
+++ b/biology/Zoologie/Gravlax/Gravlax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le gravlax[1] (du suédois gravlax, « saumon séché » ou « saumon enterré ») est une spécialité culinaire des cuisines traditionnelles nordiques, à base de filets de saumon cru longuement marinés, macérés, et séchés avec du sel, du sucre, du poivre et de l'aneth.
+Le gravlax (du suédois gravlax, « saumon séché » ou « saumon enterré ») est une spécialité culinaire des cuisines traditionnelles nordiques, à base de filets de saumon cru longuement marinés, macérés, et séchés avec du sel, du sucre, du poivre et de l'aneth.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot gravlax (« saumon enterré[2] ») est issu du mot scandinave gräva/grave (« creuser », qui prend le sens moderne de conserver par salaison ou séchage) et lax/laks, « saumon ». Le mot grav se rapproche du proto-germanique *grabą, *grabō (« trou dans le sol, fossé, tranchée, tombe ») et de la racine indo-européenne *ghrebh-, « creuser, gratter, griffer ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot gravlax (« saumon enterré ») est issu du mot scandinave gräva/grave (« creuser », qui prend le sens moderne de conserver par salaison ou séchage) et lax/laks, « saumon ». Le mot grav se rapproche du proto-germanique *grabą, *grabō (« trou dans le sol, fossé, tranchée, tombe ») et de la racine indo-européenne *ghrebh-, « creuser, gratter, griffer ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Moyen Âge, les pêcheurs scandinaves préparent traditionnellement le gravlax en salant le saumon avec une saumure de sel de mer, puis en le faisant sécher et légèrement fermenter en l'enterrant dans des jarres dans le sable de plage de mer, à l'écart des marées, à titre de conservation des aliments pour plusieurs mois par salaison et séchage[3] (variante du saumon fumé par fumage).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, les pêcheurs scandinaves préparent traditionnellement le gravlax en salant le saumon avec une saumure de sel de mer, puis en le faisant sécher et légèrement fermenter en l'enterrant dans des jarres dans le sable de plage de mer, à l'écart des marées, à titre de conservation des aliments pour plusieurs mois par salaison et séchage (variante du saumon fumé par fumage).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gravlax est préparé à ce jour (depuis l'invention de la réfrigération des aliments) à partir de filets de saumon cru (parfois légèrement fermentés) entre lesquels est ajoutée une marinade sèche de gros sel (pour environ 10 % du poids du poisson), d'un peu de sucre, de poivre blanc, et d'aneth, ainsi que diverses épices et préparations aromatiques selon les recettes et les régions (purée de betteraves, d'aquavit ou de vodka, cognac, baies roses). La préparation est ensuite couverte de film alimentaire, pressée sous des poids pour la sécher, et conservée au froid durant deux à trois jours. L'eau qui se forme doit être ôtée toutes les huit à douze heures. Une fois marinés (ou macérés) les filets sont débarrassés de leur garniture puis coupés en fines tranches, servies par exemple avec une salade de pommes de terre, ou sur des tartines de pain de campagne (ou de pain croquant suédois), avec du citron, des câpres, ou une sauce à la moutarde.
 </t>
@@ -605,7 +623,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Fāfaru, spécialité polynésienne de poisson fermenté dans de l'eau de mer
 Fesikh, spécialité égyptienne et soudanaise de mulet fermenté
